--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.576682333333332</v>
+        <v>13.20950266666667</v>
       </c>
       <c r="H2">
-        <v>25.730047</v>
+        <v>39.628508</v>
       </c>
       <c r="I2">
-        <v>0.3754230651280642</v>
+        <v>0.4617788189380864</v>
       </c>
       <c r="J2">
-        <v>0.3754230651280642</v>
+        <v>0.4617788189380864</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N2">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O2">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P2">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q2">
-        <v>89.11957138988009</v>
+        <v>153.4005630670524</v>
       </c>
       <c r="R2">
-        <v>802.0761425089208</v>
+        <v>1380.605067603472</v>
       </c>
       <c r="S2">
-        <v>0.03135152944746896</v>
+        <v>0.04476041740429164</v>
       </c>
       <c r="T2">
-        <v>0.03135152944746896</v>
+        <v>0.04476041740429163</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.576682333333332</v>
+        <v>13.20950266666667</v>
       </c>
       <c r="H3">
-        <v>25.730047</v>
+        <v>39.628508</v>
       </c>
       <c r="I3">
-        <v>0.3754230651280642</v>
+        <v>0.4617788189380864</v>
       </c>
       <c r="J3">
-        <v>0.3754230651280642</v>
+        <v>0.4617788189380864</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>107.146858</v>
       </c>
       <c r="O3">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P3">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q3">
-        <v>306.3215213602584</v>
+        <v>471.7855688253182</v>
       </c>
       <c r="R3">
-        <v>2756.893692242326</v>
+        <v>4246.070119427864</v>
       </c>
       <c r="S3">
-        <v>0.1077613822367437</v>
+        <v>0.1376612873103463</v>
       </c>
       <c r="T3">
-        <v>0.1077613822367437</v>
+        <v>0.1376612873103463</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.576682333333332</v>
+        <v>13.20950266666667</v>
       </c>
       <c r="H4">
-        <v>25.730047</v>
+        <v>39.628508</v>
       </c>
       <c r="I4">
-        <v>0.3754230651280642</v>
+        <v>0.4617788189380864</v>
       </c>
       <c r="J4">
-        <v>0.3754230651280642</v>
+        <v>0.4617788189380864</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N4">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O4">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P4">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q4">
-        <v>226.8567470030586</v>
+        <v>361.9317516645929</v>
       </c>
       <c r="R4">
-        <v>2041.710723027528</v>
+        <v>3257.385764981336</v>
       </c>
       <c r="S4">
-        <v>0.07980633067576715</v>
+        <v>0.1056072803936996</v>
       </c>
       <c r="T4">
-        <v>0.07980633067576716</v>
+        <v>0.1056072803936996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.576682333333332</v>
+        <v>13.20950266666667</v>
       </c>
       <c r="H5">
-        <v>25.730047</v>
+        <v>39.628508</v>
       </c>
       <c r="I5">
-        <v>0.3754230651280642</v>
+        <v>0.4617788189380864</v>
       </c>
       <c r="J5">
-        <v>0.3754230651280642</v>
+        <v>0.4617788189380864</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N5">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O5">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P5">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q5">
-        <v>444.8763378303206</v>
+        <v>595.4663492421932</v>
       </c>
       <c r="R5">
-        <v>4003.887040472885</v>
+        <v>5359.197143179739</v>
       </c>
       <c r="S5">
-        <v>0.1565038227680844</v>
+        <v>0.1737498338297489</v>
       </c>
       <c r="T5">
-        <v>0.1565038227680845</v>
+        <v>0.1737498338297489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>21.085357</v>
       </c>
       <c r="I6">
-        <v>0.3076531245457689</v>
+        <v>0.2457011818953142</v>
       </c>
       <c r="J6">
-        <v>0.3076531245457688</v>
+        <v>0.2457011818953142</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N6">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O6">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P6">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q6">
-        <v>73.03204609158345</v>
+        <v>81.62067661668758</v>
       </c>
       <c r="R6">
-        <v>657.288414824251</v>
+        <v>734.586089550188</v>
       </c>
       <c r="S6">
-        <v>0.02569207086547086</v>
+        <v>0.0238159201057608</v>
       </c>
       <c r="T6">
-        <v>0.02569207086547086</v>
+        <v>0.0238159201057608</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>21.085357</v>
       </c>
       <c r="I7">
-        <v>0.3076531245457689</v>
+        <v>0.2457011818953142</v>
       </c>
       <c r="J7">
-        <v>0.3076531245457688</v>
+        <v>0.2457011818953142</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>107.146858</v>
       </c>
       <c r="O7">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P7">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q7">
         <v>251.0255280398118</v>
@@ -883,10 +883,10 @@
         <v>2259.229752358307</v>
       </c>
       <c r="S7">
-        <v>0.08830870830804154</v>
+        <v>0.07324619407872288</v>
       </c>
       <c r="T7">
-        <v>0.08830870830804152</v>
+        <v>0.07324619407872288</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>21.085357</v>
       </c>
       <c r="I8">
-        <v>0.3076531245457689</v>
+        <v>0.2457011818953142</v>
       </c>
       <c r="J8">
-        <v>0.3076531245457688</v>
+        <v>0.2457011818953142</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N8">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O8">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P8">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q8">
-        <v>185.9054318252187</v>
+        <v>192.5750066967771</v>
       </c>
       <c r="R8">
-        <v>1673.148886426968</v>
+        <v>1733.175060270994</v>
       </c>
       <c r="S8">
-        <v>0.06539999608856532</v>
+        <v>0.05619104329893663</v>
       </c>
       <c r="T8">
-        <v>0.06539999608856532</v>
+        <v>0.05619104329893663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>21.085357</v>
       </c>
       <c r="I9">
-        <v>0.3076531245457689</v>
+        <v>0.2457011818953142</v>
       </c>
       <c r="J9">
-        <v>0.3076531245457688</v>
+        <v>0.2457011818953142</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N9">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O9">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P9">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q9">
-        <v>364.5689572197406</v>
+        <v>316.8330373492317</v>
       </c>
       <c r="R9">
-        <v>3281.120614977666</v>
+        <v>2851.497336143085</v>
       </c>
       <c r="S9">
-        <v>0.1282523492836911</v>
+        <v>0.09244802441189388</v>
       </c>
       <c r="T9">
-        <v>0.1282523492836911</v>
+        <v>0.0924480244118939</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.828273</v>
+        <v>7.459692333333334</v>
       </c>
       <c r="H10">
-        <v>20.484819</v>
+        <v>22.379077</v>
       </c>
       <c r="I10">
-        <v>0.2988907691297108</v>
+        <v>0.2607765032684172</v>
       </c>
       <c r="J10">
-        <v>0.2988907691297108</v>
+        <v>0.2607765032684171</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N10">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O10">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P10">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q10">
-        <v>70.951999787613</v>
+        <v>86.6286213127409</v>
       </c>
       <c r="R10">
-        <v>638.567998088517</v>
+        <v>779.6575918146681</v>
       </c>
       <c r="S10">
-        <v>0.0249603277485102</v>
+        <v>0.02527717742093099</v>
       </c>
       <c r="T10">
-        <v>0.0249603277485102</v>
+        <v>0.02527717742093098</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.828273</v>
+        <v>7.459692333333334</v>
       </c>
       <c r="H11">
-        <v>20.484819</v>
+        <v>22.379077</v>
       </c>
       <c r="I11">
-        <v>0.2988907691297108</v>
+        <v>0.2607765032684172</v>
       </c>
       <c r="J11">
-        <v>0.2988907691297108</v>
+        <v>0.2607765032684171</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>107.146858</v>
       </c>
       <c r="O11">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P11">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q11">
-        <v>243.875999172078</v>
+        <v>266.4275317211185</v>
       </c>
       <c r="R11">
-        <v>2194.883992548702</v>
+        <v>2397.847785490067</v>
       </c>
       <c r="S11">
-        <v>0.08579356307858704</v>
+        <v>0.07774031130915561</v>
       </c>
       <c r="T11">
-        <v>0.08579356307858704</v>
+        <v>0.0777403113091556</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.828273</v>
+        <v>7.459692333333334</v>
       </c>
       <c r="H12">
-        <v>20.484819</v>
+        <v>22.379077</v>
       </c>
       <c r="I12">
-        <v>0.2988907691297108</v>
+        <v>0.2607765032684172</v>
       </c>
       <c r="J12">
-        <v>0.2988907691297108</v>
+        <v>0.2607765032684171</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N12">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O12">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P12">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q12">
-        <v>180.610606785384</v>
+        <v>204.3907012408038</v>
       </c>
       <c r="R12">
-        <v>1625.495461068456</v>
+        <v>1839.516311167234</v>
       </c>
       <c r="S12">
-        <v>0.06353732035340774</v>
+        <v>0.05963871916881639</v>
       </c>
       <c r="T12">
-        <v>0.06353732035340776</v>
+        <v>0.05963871916881638</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.828273</v>
+        <v>7.459692333333334</v>
       </c>
       <c r="H13">
-        <v>20.484819</v>
+        <v>22.379077</v>
       </c>
       <c r="I13">
-        <v>0.2988907691297108</v>
+        <v>0.2607765032684172</v>
       </c>
       <c r="J13">
-        <v>0.2988907691297108</v>
+        <v>0.2607765032684171</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N13">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O13">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P13">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q13">
-        <v>354.1855659197579</v>
+        <v>336.2727479066317</v>
       </c>
       <c r="R13">
-        <v>3187.670093277822</v>
+        <v>3026.454731159685</v>
       </c>
       <c r="S13">
-        <v>0.1245995579492058</v>
+        <v>0.09812029536951417</v>
       </c>
       <c r="T13">
-        <v>0.1245995579492058</v>
+        <v>0.09812029536951417</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4119716666666666</v>
+        <v>0.9080446666666666</v>
       </c>
       <c r="H14">
-        <v>1.235915</v>
+        <v>2.724134</v>
       </c>
       <c r="I14">
-        <v>0.01803304119645609</v>
+        <v>0.03174349589818232</v>
       </c>
       <c r="J14">
-        <v>0.01803304119645609</v>
+        <v>0.03174349589818231</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N14">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O14">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P14">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q14">
-        <v>4.280762296093888</v>
+        <v>10.54502706662844</v>
       </c>
       <c r="R14">
-        <v>38.52686066484499</v>
+        <v>94.90524359965599</v>
       </c>
       <c r="S14">
-        <v>0.001505936833969584</v>
+        <v>0.003076910564112648</v>
       </c>
       <c r="T14">
-        <v>0.001505936833969584</v>
+        <v>0.003076910564112648</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4119716666666666</v>
+        <v>0.9080446666666666</v>
       </c>
       <c r="H15">
-        <v>1.235915</v>
+        <v>2.724134</v>
       </c>
       <c r="I15">
-        <v>0.01803304119645609</v>
+        <v>0.03174349589818232</v>
       </c>
       <c r="J15">
-        <v>0.01803304119645609</v>
+        <v>0.03174349589818231</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>107.146858</v>
       </c>
       <c r="O15">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P15">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q15">
-        <v>14.71382322278555</v>
+        <v>32.43137765233022</v>
       </c>
       <c r="R15">
-        <v>132.42440900507</v>
+        <v>291.882398870972</v>
       </c>
       <c r="S15">
-        <v>0.005176201533060745</v>
+        <v>0.00946308130616179</v>
       </c>
       <c r="T15">
-        <v>0.005176201533060745</v>
+        <v>0.009463081306161789</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4119716666666666</v>
+        <v>0.9080446666666666</v>
       </c>
       <c r="H16">
-        <v>1.235915</v>
+        <v>2.724134</v>
       </c>
       <c r="I16">
-        <v>0.01803304119645609</v>
+        <v>0.03174349589818232</v>
       </c>
       <c r="J16">
-        <v>0.01803304119645609</v>
+        <v>0.03174349589818231</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N16">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O16">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P16">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q16">
-        <v>10.89681866777333</v>
+        <v>24.87983121618089</v>
       </c>
       <c r="R16">
-        <v>98.07136800996</v>
+        <v>223.918480945628</v>
       </c>
       <c r="S16">
-        <v>0.003833410843638985</v>
+        <v>0.007259631959093954</v>
       </c>
       <c r="T16">
-        <v>0.003833410843638986</v>
+        <v>0.007259631959093953</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4119716666666666</v>
+        <v>0.9080446666666666</v>
       </c>
       <c r="H17">
-        <v>1.235915</v>
+        <v>2.724134</v>
       </c>
       <c r="I17">
-        <v>0.01803304119645609</v>
+        <v>0.03174349589818232</v>
       </c>
       <c r="J17">
-        <v>0.01803304119645609</v>
+        <v>0.03174349589818231</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N17">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O17">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P17">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q17">
-        <v>21.36915408936333</v>
+        <v>40.93341409236333</v>
       </c>
       <c r="R17">
-        <v>192.32238680427</v>
+        <v>368.40072683127</v>
       </c>
       <c r="S17">
-        <v>0.007517491985786775</v>
+        <v>0.01194387206881392</v>
       </c>
       <c r="T17">
-        <v>0.007517491985786776</v>
+        <v>0.01194387206881392</v>
       </c>
     </row>
   </sheetData>
